--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
+    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>EoCEDwEC Elasticity of Component Energy Demand wrt Energy Cost</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>in the District Heating module.</t>
+  </si>
+  <si>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>We assume that biomass (wood) used in buildings is harvested by building users and</t>
+  </si>
+  <si>
+    <t>therefore wood consumption is inelastic with respect to the price of wood in stores.</t>
   </si>
 </sst>
 </file>
@@ -320,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,6 +371,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -658,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="2" max="2" width="67.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,6 +789,16 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -790,23 +816,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -822,7 +848,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
@@ -835,7 +861,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
@@ -858,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
@@ -881,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -938,7 +964,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
@@ -951,7 +977,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
@@ -974,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
@@ -1053,29 +1079,32 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1084,11 +1113,15 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="C2" s="24">
+        <f>B2</f>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D2" s="24">
         <f>'EIA Table 1'!E14-'EIA Table 1'!B14</f>
         <v>-0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1097,11 +1130,15 @@
         <v>-0.44999999999999996</v>
       </c>
       <c r="C3" s="23">
-        <f>C5</f>
+        <f t="shared" ref="C3:C6" si="0">B3</f>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D3" s="23">
+        <f>D5</f>
         <v>-0.26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1110,11 +1147,15 @@
         <v>-0.26999999999999996</v>
       </c>
       <c r="C4" s="24">
+        <f t="shared" si="0"/>
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="D4" s="24">
         <f>'EIA Table 1'!F15-'EIA Table 1'!B15</f>
         <v>-0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1123,22 +1164,47 @@
         <v>-0.44999999999999996</v>
       </c>
       <c r="C5" s="24">
+        <f t="shared" si="0"/>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D5" s="24">
         <f>'EIA Table 1'!G16-'EIA Table 1'!B16</f>
         <v>-0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\bldgs\EoCEDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS US\InputData\bldgs\EoCEDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C52FB3-41BD-4AA8-9DB0-517E4DC09456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67715FF-ECB8-403C-85D4-482D3A4407C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="825" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>EoCEDwEC Elasticity of Component Energy Demand wrt Energy Cost</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>page 3: Table 1, Table 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Note from April 2023 - there has not been an updated version of this report. This is the most recent own-price elasticity data </t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -391,7 +394,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -402,13 +404,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,7 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -810,21 +810,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.453125" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -832,127 +832,127 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -968,46 +968,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1019,111 +1019,111 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7">
         <v>-0.13</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>-0.22</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>-0.26</v>
       </c>
       <c r="E7" s="7">
         <v>-0.5</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7">
         <v>0.03</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7">
         <v>-0.08</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>-0.13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>-0.15</v>
       </c>
       <c r="E8" s="7">
         <v>0.1</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8">
         <v>-0.23</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>-0.09</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>-0.16</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>-0.19</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>0.02</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.02</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>-0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1135,96 +1135,101 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="7">
         <v>-0.08</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>-0.13</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>-0.15</v>
       </c>
       <c r="E14" s="7">
         <v>-0.18</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14">
         <v>0.01</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="7">
         <v>-0.03</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>-0.18</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>-0.25</v>
       </c>
       <c r="E15" s="7">
         <v>0.04</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>-0.13</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>-0.22</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>-0.26</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>0.01</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>-0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1244,103 +1249,103 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <f>'EIA Table 1'!E7-'EIA Table 1'!D7</f>
         <v>-0.24</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <f>B2</f>
         <v>-0.24</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <f>'EIA Table 1'!E14-'EIA Table 1'!D14</f>
         <v>-0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <f>B5</f>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <f t="shared" ref="C3:C6" si="0">B3</f>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <f>D5</f>
         <v>-3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <f>'EIA Table 1'!F8-'EIA Table 1'!D8</f>
         <v>-8.0000000000000016E-2</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <f t="shared" si="0"/>
         <v>-8.0000000000000016E-2</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>'EIA Table 1'!F15-'EIA Table 1'!D15</f>
         <v>-3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <f>'EIA Table 1'!G9-'EIA Table 1'!D9</f>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <f t="shared" si="0"/>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <f>'EIA Table 1'!G16-'EIA Table 1'!D16</f>
         <v>-3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1362,70 +1367,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <f>B5</f>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <f t="shared" ref="C8:D8" si="1">C5</f>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <f t="shared" si="1"/>
         <v>-3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <f>B5</f>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="21">
         <f t="shared" ref="C9:D9" si="2">C5</f>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <f t="shared" si="2"/>
         <v>-3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <f>B4</f>
         <v>-8.0000000000000016E-2</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <f t="shared" ref="C10:D10" si="3">C4</f>
         <v>-8.0000000000000016E-2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <f t="shared" si="3"/>
         <v>-3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <f>B2</f>
         <v>-0.24</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <f t="shared" ref="C11:D11" si="4">C2</f>
         <v>-0.24</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <f t="shared" si="4"/>
         <v>-0.03</v>
       </c>
